--- a/data/trans_camb/IP2005-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP2005-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,81</t>
+          <t>-5,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,39</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>-5,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>-5,21</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>-5,67</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,77</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,18</t>
+          <t>1,24</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 12,27</t>
+          <t>-23,65; 9,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,4; 14,31</t>
+          <t>-10,44; 13,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 11,59</t>
+          <t>-15,33; 13,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 7,72</t>
+          <t>-26,9; 12,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 11,14</t>
+          <t>-23,66; 12,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 11,48</t>
+          <t>-12,15; 17,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 8,48</t>
+          <t>-18,95; 7,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,13; 11,17</t>
+          <t>-14,31; 8,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 9,7</t>
+          <t>-8,64; 11,89</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>-6,1%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>-6,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>-5,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>-6,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>-2,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>1,34%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 15,21</t>
+          <t>-24,39; 11,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 18,04</t>
+          <t>-11,08; 16,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 14,64</t>
+          <t>-16,27; 15,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 9,36</t>
+          <t>-28,5; 14,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 13,21</t>
+          <t>-25,09; 14,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 13,98</t>
+          <t>-12,64; 21,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 10,18</t>
+          <t>-20,14; 7,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 13,46</t>
+          <t>-14,71; 9,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 11,82</t>
+          <t>-9,03; 14,34</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>6,81</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,03</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,88</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>7,77</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-7,94</t>
+          <t>6,18</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 7,98</t>
+          <t>1,72; 12,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 6,53</t>
+          <t>4,4; 14,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,79; -0,36</t>
+          <t>0,96; 11,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 8,11</t>
+          <t>-2,62; 7,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 8,32</t>
+          <t>1,22; 11,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,41; -3,53</t>
+          <t>1,14; 11,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 6,69</t>
+          <t>1,43; 8,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 6,13</t>
+          <t>4,13; 11,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,3; -3,32</t>
+          <t>2,38; 9,7</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-6,7%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-11,15%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-8,89%</t>
+          <t>7,28%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 9,38</t>
+          <t>2,04; 15,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 7,54</t>
+          <t>5,22; 18,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-14,01; -0,42</t>
+          <t>1,12; 14,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 9,56</t>
+          <t>-2,85; 9,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 9,74</t>
+          <t>1,34; 13,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,1; -4,11</t>
+          <t>1,33; 13,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 7,72</t>
+          <t>1,65; 10,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 7,01</t>
+          <t>4,68; 13,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-13,75; -3,91</t>
+          <t>2,78; 11,82</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,69</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>-4,51</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-5,67</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-3,37</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 9,76</t>
+          <t>-6,91; 2,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 13,86</t>
+          <t>-8,18; 2,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 13,44</t>
+          <t>-10,02; 0,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-26,9; 12,38</t>
+          <t>-5,98; 5,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,66; 12,5</t>
+          <t>-0,37; 9,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 17,02</t>
+          <t>-8,2; 4,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 7,15</t>
+          <t>-4,9; 2,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 8,16</t>
+          <t>-3,13; 3,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 11,89</t>
+          <t>-7,4; 0,31</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,1%</t>
+          <t>-2,31%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>-3,23%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>-4,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-6,23%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-5,7%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>-2,35%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-6,13%</t>
+          <t>-1,21%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-2,48%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>-3,67%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,39; 11,16</t>
+          <t>-7,36; 2,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 16,61</t>
+          <t>-8,75; 2,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 15,48</t>
+          <t>-10,64; 0,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,5; 14,36</t>
+          <t>-6,43; 6,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,09; 14,66</t>
+          <t>-0,37; 11,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 21,4</t>
+          <t>-8,84; 4,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 7,95</t>
+          <t>-5,23; 2,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 9,3</t>
+          <t>-3,38; 4,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 14,34</t>
+          <t>-7,96; 0,34</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,51</t>
+          <t>-6,03</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-9,88</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-7,94</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 2,31</t>
+          <t>-1,55; 7,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 2,39</t>
+          <t>-3,46; 6,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 0,42</t>
+          <t>-12,79; -0,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 5,72</t>
+          <t>-2,15; 8,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 9,63</t>
+          <t>-1,96; 8,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 4,06</t>
+          <t>-17,41; -3,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 2,53</t>
+          <t>-0,38; 6,69</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 3,74</t>
+          <t>-0,94; 6,13</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 0,31</t>
+          <t>-12,3; -3,32</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-2,31%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-3,23%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-4,84%</t>
+          <t>-6,7%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-2,35%</t>
+          <t>-11,15%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-1,21%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-3,67%</t>
+          <t>-8,89%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 2,52</t>
+          <t>-1,6; 9,38</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 2,54</t>
+          <t>-3,71; 7,54</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 0,46</t>
+          <t>-14,01; -0,42</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 6,58</t>
+          <t>-2,27; 9,56</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 11,19</t>
+          <t>-2,11; 9,74</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 4,62</t>
+          <t>-19,1; -4,11</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 2,83</t>
+          <t>-0,4; 7,72</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 4,19</t>
+          <t>-1,0; 7,01</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 0,34</t>
+          <t>-13,75; -3,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2005-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP2005-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 9,76</t>
+          <t>-22,66; 9,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 13,86</t>
+          <t>-11,33; 15,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 13,44</t>
+          <t>-16,77; 12,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,9; 12,38</t>
+          <t>-26,84; 9,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,66; 12,5</t>
+          <t>-26,66; 10,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 17,02</t>
+          <t>-11,05; 18,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 7,15</t>
+          <t>-18,5; 7,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 8,16</t>
+          <t>-12,64; 8,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 11,89</t>
+          <t>-8,32; 11,36</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-24,39; 11,16</t>
+          <t>-24,0; 10,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,08; 16,61</t>
+          <t>-11,75; 17,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 15,48</t>
+          <t>-17,36; 14,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,5; 14,36</t>
+          <t>-28,27; 11,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,09; 14,66</t>
+          <t>-27,84; 12,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 21,4</t>
+          <t>-11,23; 23,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 7,95</t>
+          <t>-20,16; 7,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 9,3</t>
+          <t>-13,28; 9,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 14,34</t>
+          <t>-8,59; 13,17</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 4,74</t>
+          <t>-7,98; 4,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 4,82</t>
+          <t>-8,06; 4,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 5,21</t>
+          <t>-8,09; 5,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 5,56</t>
+          <t>-6,6; 5,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 10,41</t>
+          <t>-0,93; 10,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 6,33</t>
+          <t>-8,3; 5,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 3,64</t>
+          <t>-5,77; 3,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 5,75</t>
+          <t>-2,88; 5,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 3,92</t>
+          <t>-6,43; 3,63</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 5,34</t>
+          <t>-8,57; 5,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 5,4</t>
+          <t>-8,58; 5,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 5,96</t>
+          <t>-8,78; 6,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 6,34</t>
+          <t>-7,03; 6,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 12,15</t>
+          <t>-0,98; 12,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 7,19</t>
+          <t>-8,84; 6,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 4,13</t>
+          <t>-6,18; 4,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 6,63</t>
+          <t>-3,1; 6,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 4,41</t>
+          <t>-7,02; 4,1</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 12,27</t>
+          <t>0,8; 11,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,4; 14,31</t>
+          <t>4,06; 14,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 11,59</t>
+          <t>1,38; 11,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 7,72</t>
+          <t>-2,21; 8,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 11,14</t>
+          <t>0,87; 11,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 11,48</t>
+          <t>0,98; 11,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 8,48</t>
+          <t>0,73; 8,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,13; 11,17</t>
+          <t>4,38; 11,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 9,7</t>
+          <t>2,22; 9,68</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,04; 15,21</t>
+          <t>0,92; 14,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,22; 18,04</t>
+          <t>5,11; 18,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,12; 14,64</t>
+          <t>1,61; 14,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 9,36</t>
+          <t>-2,56; 10,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,34; 13,21</t>
+          <t>0,97; 13,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,33; 13,98</t>
+          <t>1,09; 13,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 10,18</t>
+          <t>0,85; 10,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,68; 13,46</t>
+          <t>5,06; 13,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,78; 11,82</t>
+          <t>2,64; 11,69</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 2,31</t>
+          <t>-7,08; 3,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 2,39</t>
+          <t>-8,19; 2,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 0,42</t>
+          <t>-10,07; 0,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 5,72</t>
+          <t>-5,74; 5,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 9,63</t>
+          <t>-0,32; 9,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 4,06</t>
+          <t>-8,11; 3,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 2,53</t>
+          <t>-4,89; 2,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 3,74</t>
+          <t>-3,03; 4,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 0,31</t>
+          <t>-7,37; 0,64</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 2,52</t>
+          <t>-7,48; 3,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 2,54</t>
+          <t>-8,73; 2,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 0,46</t>
+          <t>-10,62; 0,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 6,58</t>
+          <t>-6,19; 6,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 11,19</t>
+          <t>-0,29; 10,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 4,62</t>
+          <t>-8,63; 4,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 2,83</t>
+          <t>-5,21; 2,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 4,19</t>
+          <t>-3,25; 4,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 0,34</t>
+          <t>-7,93; 0,69</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 7,98</t>
+          <t>-1,39; 8,36</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 6,53</t>
+          <t>-3,21; 6,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,79; -0,36</t>
+          <t>-12,25; 0,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 8,11</t>
+          <t>-2,43; 8,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 8,32</t>
+          <t>-0,91; 9,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,41; -3,53</t>
+          <t>-15,89; -2,58</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 6,69</t>
+          <t>-0,23; 6,65</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 6,13</t>
+          <t>-0,66; 5,98</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,3; -3,32</t>
+          <t>-12,3; -3,19</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 9,38</t>
+          <t>-1,5; 9,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 7,54</t>
+          <t>-3,45; 7,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-14,01; -0,42</t>
+          <t>-13,45; 0,17</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 9,56</t>
+          <t>-2,64; 9,71</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 9,74</t>
+          <t>-1,01; 10,55</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-19,1; -4,11</t>
+          <t>-17,7; -2,95</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 7,72</t>
+          <t>-0,26; 7,6</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 7,01</t>
+          <t>-0,69; 6,83</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-13,75; -3,91</t>
+          <t>-13,53; -3,63</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 4,65</t>
+          <t>-0,37; 4,92</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 5,01</t>
+          <t>-0,21; 4,91</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 2,21</t>
+          <t>-3,46; 2,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 4,21</t>
+          <t>-1,08; 4,5</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,89</t>
+          <t>1,89; 6,87</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 1,21</t>
+          <t>-4,7; 1,32</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 3,53</t>
+          <t>-0,17; 3,81</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,18</t>
+          <t>1,46; 5,14</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 0,91</t>
+          <t>-3,01; 1,29</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 5,34</t>
+          <t>-0,43; 5,61</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 5,77</t>
+          <t>-0,24; 5,59</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 2,51</t>
+          <t>-3,84; 2,67</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 4,85</t>
+          <t>-1,2; 5,18</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1,88; 7,9</t>
+          <t>2,17; 7,89</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 1,39</t>
+          <t>-5,23; 1,52</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 3,99</t>
+          <t>-0,17; 4,36</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1,58; 5,94</t>
+          <t>1,63; 5,88</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 1,04</t>
+          <t>-3,35; 1,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2005-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP2005-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,66; 9,35</t>
+          <t>-22,89; 9,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 15,02</t>
+          <t>-12,39; 13,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 12,8</t>
+          <t>-15,89; 13,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,84; 9,31</t>
+          <t>-26,49; 12,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,66; 10,99</t>
+          <t>-23,58; 12,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 18,78</t>
+          <t>-11,05; 18,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 7,1</t>
+          <t>-18,75; 5,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 8,8</t>
+          <t>-13,01; 8,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 11,36</t>
+          <t>-7,91; 11,29</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-24,0; 10,48</t>
+          <t>-23,96; 10,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 17,82</t>
+          <t>-12,66; 16,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 14,77</t>
+          <t>-16,36; 15,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 11,1</t>
+          <t>-28,66; 14,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 12,29</t>
+          <t>-25,72; 14,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 23,48</t>
+          <t>-11,6; 22,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 7,36</t>
+          <t>-19,97; 6,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 9,78</t>
+          <t>-13,35; 10,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 13,17</t>
+          <t>-8,19; 13,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 4,6</t>
+          <t>-7,69; 4,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 4,75</t>
+          <t>-8,3; 4,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 5,83</t>
+          <t>-8,14; 5,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 5,79</t>
+          <t>-7,31; 6,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 10,48</t>
+          <t>-0,73; 10,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 5,68</t>
+          <t>-7,45; 5,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 3,9</t>
+          <t>-5,62; 3,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 5,77</t>
+          <t>-3,31; 5,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 3,63</t>
+          <t>-5,58; 3,62</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 5,19</t>
+          <t>-8,23; 5,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 5,45</t>
+          <t>-8,88; 5,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 6,56</t>
+          <t>-8,76; 6,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 6,63</t>
+          <t>-7,91; 6,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 12,05</t>
+          <t>-0,7; 11,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 6,51</t>
+          <t>-8,05; 6,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 4,44</t>
+          <t>-6,13; 3,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 6,58</t>
+          <t>-3,51; 6,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 4,1</t>
+          <t>-6,11; 4,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 11,97</t>
+          <t>1,88; 12,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,06; 14,51</t>
+          <t>4,2; 14,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,38; 11,8</t>
+          <t>0,89; 12,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 8,26</t>
+          <t>-2,81; 7,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 11,02</t>
+          <t>1,18; 11,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,98; 11,07</t>
+          <t>1,43; 11,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 8,34</t>
+          <t>1,19; 8,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,38; 11,16</t>
+          <t>4,63; 11,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,22; 9,68</t>
+          <t>2,75; 10,15</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 14,95</t>
+          <t>2,21; 16,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,11; 18,16</t>
+          <t>4,86; 18,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,61; 14,8</t>
+          <t>1,0; 15,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 10,05</t>
+          <t>-3,19; 8,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 13,26</t>
+          <t>1,32; 13,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 13,4</t>
+          <t>1,6; 13,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,85; 10,1</t>
+          <t>1,4; 10,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,06; 13,59</t>
+          <t>5,39; 14,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,64; 11,69</t>
+          <t>3,19; 12,36</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 3,43</t>
+          <t>-6,99; 3,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 2,34</t>
+          <t>-7,91; 2,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 0,68</t>
+          <t>-9,8; 0,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 5,77</t>
+          <t>-5,69; 5,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 9,24</t>
+          <t>-0,46; 9,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 3,93</t>
+          <t>-8,09; 3,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 2,63</t>
+          <t>-4,52; 2,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 4,34</t>
+          <t>-3,65; 3,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 0,64</t>
+          <t>-7,61; 0,41</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 3,7</t>
+          <t>-7,42; 3,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 2,54</t>
+          <t>-8,37; 2,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 0,73</t>
+          <t>-10,35; 0,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 6,65</t>
+          <t>-6,1; 6,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 10,9</t>
+          <t>-0,49; 11,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 4,57</t>
+          <t>-8,66; 4,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 2,89</t>
+          <t>-4,84; 3,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,82</t>
+          <t>-3,89; 4,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 0,69</t>
+          <t>-8,19; 0,37</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 8,36</t>
+          <t>-1,48; 7,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 6,76</t>
+          <t>-3,68; 6,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 0,26</t>
+          <t>-11,96; 0,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 8,24</t>
+          <t>-2,34; 7,99</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 9,02</t>
+          <t>-1,44; 8,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-15,89; -2,58</t>
+          <t>-16,6; -3,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 6,65</t>
+          <t>-0,36; 6,8</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 5,98</t>
+          <t>-0,46; 6,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,3; -3,19</t>
+          <t>-12,39; -3,61</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 9,62</t>
+          <t>-1,59; 9,17</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 7,84</t>
+          <t>-4,0; 7,55</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 0,17</t>
+          <t>-13,17; 0,25</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 9,71</t>
+          <t>-2,56; 9,28</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 10,55</t>
+          <t>-1,55; 10,26</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,7; -2,95</t>
+          <t>-18,52; -3,86</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 7,6</t>
+          <t>-0,36; 7,82</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 6,83</t>
+          <t>-0,49; 7,4</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-13,53; -3,63</t>
+          <t>-13,61; -4,07</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 4,92</t>
+          <t>-0,94; 4,42</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 4,91</t>
+          <t>-0,37; 4,82</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 2,33</t>
+          <t>-3,97; 1,88</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,5</t>
+          <t>-1,19; 4,19</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,89; 6,87</t>
+          <t>1,78; 6,91</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 1,32</t>
+          <t>-4,17; 1,62</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 3,81</t>
+          <t>-0,13; 3,75</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,14</t>
+          <t>1,32; 5,16</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 1,29</t>
+          <t>-3,25; 0,97</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 5,61</t>
+          <t>-1,04; 5,08</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 5,59</t>
+          <t>-0,38; 5,49</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 2,67</t>
+          <t>-4,42; 2,14</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 5,18</t>
+          <t>-1,31; 4,84</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>2,17; 7,89</t>
+          <t>1,98; 7,94</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 1,52</t>
+          <t>-4,57; 1,88</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,36</t>
+          <t>-0,14; 4,27</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,88</t>
+          <t>1,47; 5,83</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 1,46</t>
+          <t>-3,62; 1,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2005-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP2005-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,69</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,21</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-5,67</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-1,13</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,89; 9,08</t>
+          <t>-7,15; 4,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 13,82</t>
+          <t>-3,04; 8,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 13,45</t>
+          <t>-7,81; 5,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,49; 12,49</t>
+          <t>-7,7; 3,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,58; 12,55</t>
+          <t>-7,23; 4,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 18,0</t>
+          <t>-6,95; 5,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-18,75; 5,64</t>
+          <t>-5,75; 2,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 8,74</t>
+          <t>-3,33; 4,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 11,29</t>
+          <t>-5,28; 3,92</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,1%</t>
+          <t>-1,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>-1,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,23%</t>
+          <t>-2,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,7%</t>
+          <t>-1,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>-1,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-6,13%</t>
+          <t>-1,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-2,48%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>-1,24%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,96; 10,02</t>
+          <t>-7,81; 5,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 16,05</t>
+          <t>-3,3; 10,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 15,82</t>
+          <t>-8,44; 6,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,66; 14,3</t>
+          <t>-8,28; 3,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,72; 14,46</t>
+          <t>-7,9; 4,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 22,76</t>
+          <t>-7,5; 5,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 6,3</t>
+          <t>-6,28; 3,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 10,22</t>
+          <t>-3,56; 5,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 13,1</t>
+          <t>-5,8; 4,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>6,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>7,77</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>5,93</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 4,62</t>
+          <t>-2,62; 7,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 4,68</t>
+          <t>1,22; 11,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 5,87</t>
+          <t>1,16; 11,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 6,07</t>
+          <t>1,72; 12,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 10,25</t>
+          <t>4,4; 14,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 5,64</t>
+          <t>0,34; 11,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 3,46</t>
+          <t>1,43; 8,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 5,34</t>
+          <t>4,13; 11,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 3,62</t>
+          <t>2,15; 9,67</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,71%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,87%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,38%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,23%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,06%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-1,0%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>6,99%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 5,39</t>
+          <t>-2,85; 9,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 5,26</t>
+          <t>1,34; 13,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 6,76</t>
+          <t>1,31; 14,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 6,98</t>
+          <t>2,04; 15,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 11,81</t>
+          <t>5,22; 18,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 6,26</t>
+          <t>0,45; 14,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 3,96</t>
+          <t>1,65; 10,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 6,05</t>
+          <t>4,68; 13,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 4,14</t>
+          <t>2,44; 11,68</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,81</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,39</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,77</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,18</t>
+          <t>-2,54</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 12,78</t>
+          <t>-5,98; 5,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,2; 14,67</t>
+          <t>-0,37; 9,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 12,18</t>
+          <t>-6,33; 6,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 7,53</t>
+          <t>-6,91; 2,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 11,32</t>
+          <t>-8,18; 2,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 11,06</t>
+          <t>-10,08; 0,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 8,5</t>
+          <t>-4,9; 2,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,63; 11,49</t>
+          <t>-3,13; 3,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,75; 10,15</t>
+          <t>-6,9; 1,29</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>-0,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>-2,31%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>-3,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>-4,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>-1,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>-2,76%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,21; 16,17</t>
+          <t>-6,43; 6,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,86; 18,44</t>
+          <t>-0,37; 11,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 15,35</t>
+          <t>-6,85; 6,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 8,99</t>
+          <t>-7,36; 2,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,32; 13,71</t>
+          <t>-8,75; 2,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 13,37</t>
+          <t>-10,65; 0,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,4; 10,37</t>
+          <t>-5,23; 2,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,39; 14,05</t>
+          <t>-3,38; 4,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,19; 12,36</t>
+          <t>-7,46; 1,41</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,51</t>
+          <t>-9,91</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-6,04</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-7,89</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 3,21</t>
+          <t>-2,15; 8,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 2,21</t>
+          <t>-1,96; 8,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 0,62</t>
+          <t>-17,5; -3,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 5,83</t>
+          <t>-1,55; 7,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 9,54</t>
+          <t>-3,46; 6,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 3,78</t>
+          <t>-12,86; -0,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 2,82</t>
+          <t>-0,38; 6,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 3,87</t>
+          <t>-0,94; 6,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 0,41</t>
+          <t>-12,23; -3,23</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,31%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,23%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-4,84%</t>
+          <t>-11,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,35%</t>
+          <t>-6,72%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-1,21%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-3,67%</t>
+          <t>-8,83%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 3,56</t>
+          <t>-2,27; 9,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 2,42</t>
+          <t>-2,11; 9,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 0,7</t>
+          <t>-19,11; -4,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 6,67</t>
+          <t>-1,6; 9,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 11,14</t>
+          <t>-3,71; 7,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 4,31</t>
+          <t>-14,08; -0,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 3,13</t>
+          <t>-0,4; 7,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 4,29</t>
+          <t>-1,0; 7,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 0,37</t>
+          <t>-13,54; -3,72</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-6,03</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-9,88</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-7,94</t>
+          <t>-0,92</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 7,94</t>
+          <t>-1,26; 4,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 6,56</t>
+          <t>1,69; 6,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 0,22</t>
+          <t>-4,3; 1,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 7,99</t>
+          <t>-0,7; 4,65</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 8,77</t>
+          <t>-0,4; 5,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,6; -3,21</t>
+          <t>-3,75; 2,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 6,8</t>
+          <t>-0,23; 3,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 6,44</t>
+          <t>1,42; 5,18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,39; -3,61</t>
+          <t>-2,98; 1,14</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-6,7%</t>
+          <t>-1,15%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-11,15%</t>
+          <t>-0,93%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-8,89%</t>
+          <t>-1,03%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 9,17</t>
+          <t>-1,4; 4,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 7,55</t>
+          <t>1,88; 7,9</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 0,25</t>
+          <t>-4,78; 1,97</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 9,28</t>
+          <t>-0,77; 5,34</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 10,26</t>
+          <t>-0,45; 5,77</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-18,52; -3,86</t>
+          <t>-4,15; 2,44</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 7,82</t>
+          <t>-0,26; 3,99</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 7,4</t>
+          <t>1,58; 5,94</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-13,61; -4,07</t>
+          <t>-3,32; 1,29</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,08</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>4,39</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-1,46</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>3,35</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-1,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,94; 4,42</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 4,82</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-3,97; 1,88</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-1,19; 4,19</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>1,78; 6,91</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-4,17; 1,62</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 3,75</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>1,32; 5,16</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 0,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>2,35%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>2,66%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-0,81%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>1,68%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>4,94%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-1,64%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>2,03%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>3,77%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-1,2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 5,08</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-0,38; 5,49</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-4,42; 2,14</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 4,84</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 7,94</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-4,57; 1,88</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 4,27</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 5,83</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-3,62; 1,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
